--- a/trunk/docs/2010-08-02_Test Plan/TestCase11-20.xlsx
+++ b/trunk/docs/2010-08-02_Test Plan/TestCase11-20.xlsx
@@ -1099,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
